--- a/LIBERACION_ACTA.xlsx
+++ b/LIBERACION_ACTA.xlsx
@@ -5,16 +5,15 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\PYTHON\DB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D80617-33DF-45CF-86DE-296DC69C41C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D5F0B-DA58-4F6B-9274-94BFDCE79CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ACTA DE LIBERACION" sheetId="8" r:id="rId1"/>
-    <sheet name="ACTA DE LIBERACION (2)" sheetId="9" r:id="rId2"/>
+    <sheet name="impresion" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <r>
       <rPr>
@@ -323,27 +322,6 @@
     <t>(    )</t>
   </si>
   <si>
-    <t>19/04/2024</t>
-  </si>
-  <si>
-    <t>F00100101948</t>
-  </si>
-  <si>
-    <t>D720351</t>
-  </si>
-  <si>
-    <t>30/09/2026</t>
-  </si>
-  <si>
-    <t>CJ X 14</t>
-  </si>
-  <si>
-    <t>ZYPREXA 10 MG TABLETAS CJA X 14</t>
-  </si>
-  <si>
-    <t>OLANSAPINA 10MG TABLETA</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -363,21 +341,6 @@
       </rPr>
       <t>:</t>
     </r>
-  </si>
-  <si>
-    <t>TECNOFARMA S.A.</t>
-  </si>
-  <si>
-    <t>EE11757</t>
-  </si>
-  <si>
-    <t>LILLY DEL CARIBE INC.</t>
-  </si>
-  <si>
-    <t>PUERTO RICO</t>
-  </si>
-  <si>
-    <t>00100101004312</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -748,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -839,12 +802,51 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -866,9 +868,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -901,45 +900,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,105 +1005,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3028950" y="9629775"/>
-          <a:ext cx="2588895" cy="1499870"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2343150" cy="45719"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE29E92-DBF3-472E-91A5-A49AE6DD7147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3305175" y="11584305"/>
-          <a:ext cx="2343150" cy="45719"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="1714500">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1714500" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:ln w="6345">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>188595</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2" descr="Texto, Carta, Pizarra&#10;&#10;Descripción generada automáticamente">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E2C04F7-8D1A-4CF3-B1F7-5707CDA2E0E8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3314700" y="9944100"/>
           <a:ext cx="2588895" cy="1499870"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1497,18 +1358,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
+      <c r="A1" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:17" ht="24.75" customHeight="1">
       <c r="A2" s="21" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="23"/>
@@ -1524,9 +1385,9 @@
       <c r="C3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:17" ht="27" customHeight="1">
       <c r="A4" s="19" t="s">
@@ -1536,9 +1397,9 @@
       <c r="C4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="54"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1">
       <c r="A5" s="19" t="s">
@@ -1548,9 +1409,9 @@
       <c r="C5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="19" t="s">
@@ -1560,21 +1421,21 @@
       <c r="C6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" customHeight="1">
       <c r="A8" s="19" t="s">
@@ -1584,9 +1445,9 @@
       <c r="C8" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1">
       <c r="A9" s="19" t="s">
@@ -1596,9 +1457,9 @@
       <c r="C9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="19" t="s">
@@ -1608,15 +1469,15 @@
       <c r="C10" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
     </row>
     <row r="12" spans="1:17" ht="13.8">
-      <c r="A12" s="40" t="s">
+      <c r="A12" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="41"/>
+      <c r="B12" s="53"/>
       <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1631,10 +1492,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.8">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
         <v>33</v>
       </c>
@@ -1645,8 +1506,8 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="41.4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
+      <c r="A14" s="56"/>
+      <c r="B14" s="57"/>
       <c r="C14" s="9" t="s">
         <v>37</v>
       </c>
@@ -1658,8 +1519,8 @@
       <c r="Q14" s="16"/>
     </row>
     <row r="15" spans="1:17" ht="41.4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="57"/>
       <c r="C15" s="9" t="s">
         <v>34</v>
       </c>
@@ -1670,8 +1531,8 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="27.6">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="59"/>
       <c r="C16" s="9" t="s">
         <v>38</v>
       </c>
@@ -1682,10 +1543,10 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="48" t="s">
+      <c r="A17" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1698,8 +1559,8 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="13.8">
-      <c r="A18" s="49"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="9" t="s">
         <v>40</v>
       </c>
@@ -1710,8 +1571,8 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="13.8">
-      <c r="A19" s="49"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="9" t="s">
         <v>41</v>
       </c>
@@ -1722,8 +1583,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="34"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="9" t="s">
         <v>36</v>
       </c>
@@ -1735,8 +1596,8 @@
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="13.8">
-      <c r="A21" s="49"/>
-      <c r="B21" s="32" t="s">
+      <c r="A21" s="61"/>
+      <c r="B21" s="45" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -1749,8 +1610,8 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="13.8">
-      <c r="A22" s="49"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="61"/>
+      <c r="B22" s="46"/>
       <c r="C22" s="9" t="s">
         <v>43</v>
       </c>
@@ -1761,8 +1622,8 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="49"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="46"/>
       <c r="C23" s="9" t="s">
         <v>44</v>
       </c>
@@ -1773,8 +1634,8 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="13.8">
-      <c r="A24" s="49"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="9" t="s">
         <v>45</v>
       </c>
@@ -1785,8 +1646,8 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="49"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="9" t="s">
         <v>46</v>
       </c>
@@ -1797,8 +1658,8 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="13.8">
-      <c r="A26" s="49"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="9" t="s">
         <v>47</v>
       </c>
@@ -1809,8 +1670,8 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="49"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="46"/>
       <c r="C27" s="9" t="s">
         <v>48</v>
       </c>
@@ -1821,8 +1682,8 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="13.8">
-      <c r="A28" s="49"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="46"/>
       <c r="C28" s="9" t="s">
         <v>49</v>
       </c>
@@ -1833,8 +1694,8 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="13.8">
-      <c r="A29" s="49"/>
-      <c r="B29" s="34"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="9" t="s">
         <v>50</v>
       </c>
@@ -1845,8 +1706,8 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="13.8">
-      <c r="A30" s="49"/>
-      <c r="B30" s="32" t="s">
+      <c r="A30" s="61"/>
+      <c r="B30" s="45" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -1859,8 +1720,8 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="13.8">
-      <c r="A31" s="49"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="46"/>
       <c r="C31" s="9" t="s">
         <v>52</v>
       </c>
@@ -1871,8 +1732,8 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="27.6">
-      <c r="A32" s="49"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="46"/>
       <c r="C32" s="9" t="s">
         <v>35</v>
       </c>
@@ -1883,8 +1744,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="13.8">
-      <c r="A33" s="49"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="9" t="s">
         <v>53</v>
       </c>
@@ -1895,8 +1756,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="13.8">
-      <c r="A34" s="49"/>
-      <c r="B34" s="34"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="9" t="s">
         <v>54</v>
       </c>
@@ -1907,7 +1768,7 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="41.4">
-      <c r="A35" s="49"/>
+      <c r="A35" s="61"/>
       <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
@@ -1921,7 +1782,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="28.8">
-      <c r="A36" s="50"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="5" t="s">
         <v>11</v>
       </c>
@@ -1935,14 +1796,14 @@
       <c r="F36" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="14.4">
-      <c r="A38" s="38" t="s">
+      <c r="A38" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
     </row>
     <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="12"/>
@@ -1982,20 +1843,29 @@
       <c r="B42" s="2"/>
     </row>
     <row r="47" spans="1:6">
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3"/>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="39" t="s">
+      <c r="C49" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="39"/>
+      <c r="D49" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B30:B34"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B16"/>
+    <mergeCell ref="A17:A36"/>
+    <mergeCell ref="B17:B20"/>
     <mergeCell ref="C49:D49"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
@@ -2005,598 +1875,9 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B30:B34"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B16"/>
-    <mergeCell ref="A17:A36"/>
-    <mergeCell ref="B17:B20"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177B1718-7176-4011-9016-B31244B486DB}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:Q49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="1" width="20.77734375" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" customWidth="1"/>
-    <col min="3" max="3" width="43.6640625" customWidth="1"/>
-    <col min="4" max="6" width="11.109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="9.33203125" customWidth="1"/>
-    <col min="17" max="17" width="24.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A1" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="37"/>
-    </row>
-    <row r="2" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="53"/>
-    </row>
-    <row r="4" spans="1:17" ht="27" customHeight="1">
-      <c r="A4" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="55"/>
-      <c r="F4" s="56"/>
-    </row>
-    <row r="5" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A5" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="59"/>
-    </row>
-    <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="61">
-        <v>20101260373</v>
-      </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-    </row>
-    <row r="7" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A7" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="61">
-        <v>28</v>
-      </c>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-    </row>
-    <row r="8" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="61">
-        <v>6</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-    </row>
-    <row r="9" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A9" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-    </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="28">
-        <v>21</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="63">
-        <v>46941</v>
-      </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-    </row>
-    <row r="12" spans="1:17" ht="13.8">
-      <c r="A12" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="41"/>
-      <c r="C12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="13.8">
-      <c r="A13" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="43"/>
-      <c r="C13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-    <row r="14" spans="1:17" ht="41.4">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="Q14" s="16"/>
-    </row>
-    <row r="15" spans="1:17" ht="41.4">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="1:17" ht="27.6">
-      <c r="A16" s="46"/>
-      <c r="B16" s="47"/>
-      <c r="C16" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-    </row>
-    <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.8">
-      <c r="A18" s="49"/>
-      <c r="B18" s="33"/>
-      <c r="C18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-    </row>
-    <row r="19" spans="1:11" ht="13.8">
-      <c r="A19" s="49"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-    </row>
-    <row r="20" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A20" s="49"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="1:11" ht="13.8">
-      <c r="A21" s="49"/>
-      <c r="B21" s="32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-    </row>
-    <row r="22" spans="1:11" ht="13.8">
-      <c r="A22" s="49"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-    </row>
-    <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="49"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="1:11" ht="13.8">
-      <c r="A24" s="49"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="49"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-    </row>
-    <row r="26" spans="1:11" ht="13.8">
-      <c r="A26" s="49"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-    </row>
-    <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="49"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-    </row>
-    <row r="28" spans="1:11" ht="13.8">
-      <c r="A28" s="49"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-    </row>
-    <row r="29" spans="1:11" ht="13.8">
-      <c r="A29" s="49"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-    </row>
-    <row r="30" spans="1:11" ht="13.8">
-      <c r="A30" s="49"/>
-      <c r="B30" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.8">
-      <c r="A31" s="49"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-    </row>
-    <row r="32" spans="1:11" ht="27.6">
-      <c r="A32" s="49"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-    </row>
-    <row r="33" spans="1:6" ht="13.8">
-      <c r="A33" s="49"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-    </row>
-    <row r="34" spans="1:6" ht="13.8">
-      <c r="A34" s="49"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-    </row>
-    <row r="35" spans="1:6" ht="41.4">
-      <c r="A35" s="49"/>
-      <c r="B35" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="1:6" ht="28.8">
-      <c r="A36" s="50"/>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-    </row>
-    <row r="38" spans="1:6" ht="14.4">
-      <c r="A38" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="B38" s="38"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
-      <c r="F38" s="38"/>
-    </row>
-    <row r="39" spans="1:6" ht="14.4">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-    </row>
-    <row r="40" spans="1:6" ht="14.4">
-      <c r="A40" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-    </row>
-    <row r="41" spans="1:6" ht="14.4">
-      <c r="A41" s="12"/>
-      <c r="B41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="13"/>
-      <c r="E41" s="13"/>
-      <c r="F41" s="13"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" s="39"/>
-      <c r="D47" s="39"/>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="3:4">
-      <c r="C49" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="39"/>
-    </row>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B16"/>
-    <mergeCell ref="A17:A36"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B30:B34"/>
-  </mergeCells>
-  <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
 </file>
--- a/LIBERACION_ACTA.xlsx
+++ b/LIBERACION_ACTA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\PYTHON\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\heidi\maestradb-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D73D5F0B-DA58-4F6B-9274-94BFDCE79CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE9A08A-E421-406E-B537-BC97327A2ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,24 +16,11 @@
     <sheet name="impresion" sheetId="8" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <r>
       <rPr>
@@ -227,15 +214,6 @@
     <t>CONDICION:</t>
   </si>
   <si>
-    <t>APROBADO</t>
-  </si>
-  <si>
-    <t>RECHAZADO</t>
-  </si>
-  <si>
-    <t>( X)</t>
-  </si>
-  <si>
     <t>DIRECTOR TÉCNICO Y/O  Q.F. ASISTENTE</t>
   </si>
   <si>
@@ -317,9 +295,6 @@
   </si>
   <si>
     <t>Factura</t>
-  </si>
-  <si>
-    <t>(    )</t>
   </si>
   <si>
     <r>
@@ -345,6 +320,12 @@
   <si>
     <t xml:space="preserve">
 ACTA DE LIBERACIÓN DE MEDICAMENTOS Y DISPOSITIVOS MÉDICOS - MAPFRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APROBADO                           (X)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECHAZADO                         (  )     </t>
   </si>
 </sst>
 </file>
@@ -470,7 +451,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -707,11 +688,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -754,9 +753,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -806,7 +802,10 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -900,6 +899,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -920,68 +925,18 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>125730</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="2343150" cy="45719"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D5FF2E-F20E-41C9-A182-556640AD4206}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3019425" y="11184255"/>
-          <a:ext cx="2343150" cy="45719"/>
-        </a:xfrm>
-        <a:custGeom>
-          <a:avLst/>
-          <a:gdLst/>
-          <a:ahLst/>
-          <a:cxnLst/>
-          <a:rect l="0" t="0" r="0" b="0"/>
-          <a:pathLst>
-            <a:path w="1714500">
-              <a:moveTo>
-                <a:pt x="0" y="0"/>
-              </a:moveTo>
-              <a:lnTo>
-                <a:pt x="1714500" y="0"/>
-              </a:lnTo>
-            </a:path>
-          </a:pathLst>
-        </a:custGeom>
-        <a:ln w="6345">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>733425</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>24765</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>36196</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>188595</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2781300</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>147320</xdr:rowOff>
+      <xdr:rowOff>124396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1004,8 +959,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3028950" y="9629775"/>
-          <a:ext cx="2588895" cy="1499870"/>
+          <a:off x="3118485" y="9568816"/>
+          <a:ext cx="2756535" cy="1292160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1343,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
@@ -1359,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1">
       <c r="A1" s="48" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B1" s="49"/>
       <c r="C1" s="49"/>
@@ -1368,21 +1323,21 @@
       <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:17" ht="24.75" customHeight="1">
-      <c r="A2" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:17" s="15" customFormat="1" ht="27.75" customHeight="1">
-      <c r="A3" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="18" t="s">
+      <c r="A2" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+    </row>
+    <row r="3" spans="1:17" s="14" customFormat="1" ht="27.75" customHeight="1">
+      <c r="A3" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
       <c r="D3" s="32"/>
@@ -1390,11 +1345,11 @@
       <c r="F3" s="34"/>
     </row>
     <row r="4" spans="1:17" ht="27" customHeight="1">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="20" t="s">
+      <c r="B4" s="28"/>
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="35"/>
@@ -1402,11 +1357,11 @@
       <c r="F4" s="37"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="20" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="38"/>
@@ -1414,11 +1369,11 @@
       <c r="F5" s="40"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="20" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="19" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="41"/>
@@ -1426,11 +1381,11 @@
       <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="20" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="42"/>
@@ -1438,11 +1393,11 @@
       <c r="F7" s="42"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="20" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
       <c r="D8" s="42"/>
@@ -1450,11 +1405,11 @@
       <c r="F8" s="42"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="20" t="s">
+      <c r="B9" s="25"/>
+      <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
       <c r="D9" s="43"/>
@@ -1462,11 +1417,11 @@
       <c r="F9" s="43"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="20" t="s">
+      <c r="B10" s="27"/>
+      <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
       <c r="D10" s="44"/>
@@ -1497,7 +1452,7 @@
       </c>
       <c r="B13" s="55"/>
       <c r="C13" s="9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>6</v>
@@ -1509,20 +1464,20 @@
       <c r="A14" s="56"/>
       <c r="B14" s="57"/>
       <c r="C14" s="9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-      <c r="Q14" s="16"/>
+      <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="41.4">
       <c r="A15" s="56"/>
       <c r="B15" s="57"/>
       <c r="C15" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>6</v>
@@ -1534,7 +1489,7 @@
       <c r="A16" s="58"/>
       <c r="B16" s="59"/>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>6</v>
@@ -1544,13 +1499,13 @@
     </row>
     <row r="17" spans="1:11" ht="13.8">
       <c r="A17" s="60" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B17" s="45" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>6</v>
@@ -1562,7 +1517,7 @@
       <c r="A18" s="61"/>
       <c r="B18" s="46"/>
       <c r="C18" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>6</v>
@@ -1574,7 +1529,7 @@
       <c r="A19" s="61"/>
       <c r="B19" s="46"/>
       <c r="C19" s="9" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>6</v>
@@ -1586,7 +1541,7 @@
       <c r="A20" s="61"/>
       <c r="B20" s="47"/>
       <c r="C20" s="9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>6</v>
@@ -1601,7 +1556,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>6</v>
@@ -1613,7 +1568,7 @@
       <c r="A22" s="61"/>
       <c r="B22" s="46"/>
       <c r="C22" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7" t="s">
         <v>6</v>
@@ -1625,7 +1580,7 @@
       <c r="A23" s="61"/>
       <c r="B23" s="46"/>
       <c r="C23" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="7" t="s">
         <v>6</v>
@@ -1637,7 +1592,7 @@
       <c r="A24" s="61"/>
       <c r="B24" s="46"/>
       <c r="C24" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D24" s="7" t="s">
         <v>6</v>
@@ -1649,7 +1604,7 @@
       <c r="A25" s="61"/>
       <c r="B25" s="46"/>
       <c r="C25" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>6</v>
@@ -1661,7 +1616,7 @@
       <c r="A26" s="61"/>
       <c r="B26" s="46"/>
       <c r="C26" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7" t="s">
         <v>6</v>
@@ -1673,7 +1628,7 @@
       <c r="A27" s="61"/>
       <c r="B27" s="46"/>
       <c r="C27" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D27" s="7" t="s">
         <v>6</v>
@@ -1685,7 +1640,7 @@
       <c r="A28" s="61"/>
       <c r="B28" s="46"/>
       <c r="C28" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D28" s="7" t="s">
         <v>6</v>
@@ -1697,7 +1652,7 @@
       <c r="A29" s="61"/>
       <c r="B29" s="47"/>
       <c r="C29" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D29" s="7" t="s">
         <v>6</v>
@@ -1711,7 +1666,7 @@
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D30" s="7" t="s">
         <v>6</v>
@@ -1723,7 +1678,7 @@
       <c r="A31" s="61"/>
       <c r="B31" s="46"/>
       <c r="C31" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D31" s="7" t="s">
         <v>6</v>
@@ -1735,7 +1690,7 @@
       <c r="A32" s="61"/>
       <c r="B32" s="46"/>
       <c r="C32" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32" s="7" t="s">
         <v>6</v>
@@ -1747,7 +1702,7 @@
       <c r="A33" s="61"/>
       <c r="B33" s="46"/>
       <c r="C33" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D33" s="7" t="s">
         <v>6</v>
@@ -1759,7 +1714,7 @@
       <c r="A34" s="61"/>
       <c r="B34" s="47"/>
       <c r="C34" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D34" s="7" t="s">
         <v>6</v>
@@ -1773,7 +1728,7 @@
         <v>10</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D35" s="7" t="s">
         <v>6</v>
@@ -1787,7 +1742,7 @@
         <v>11</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D36" s="7" t="s">
         <v>6</v>
@@ -1818,11 +1773,9 @@
         <v>28</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>31</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C40" s="63"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -1830,51 +1783,62 @@
     <row r="41" spans="1:6" ht="14.4">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="14" t="s">
         <v>59</v>
       </c>
+      <c r="C41" s="63"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="2"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="C47" s="31"/>
-      <c r="D47" s="31"/>
+      <c r="C42" s="63"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="C43" s="63"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="C44" s="63"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="C45" s="63"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="C46" s="63"/>
+    </row>
+    <row r="47" spans="1:6" ht="11.4" customHeight="1">
+      <c r="C47" s="64"/>
+      <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3"/>
+      <c r="C48" s="31" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="49" spans="3:4">
-      <c r="C49" s="31" t="s">
-        <v>32</v>
-      </c>
-      <c r="D49" s="31"/>
+      <c r="C49" s="30"/>
+      <c r="D49" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B30:B34"/>
+  <mergeCells count="17">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A38:F38"/>
-    <mergeCell ref="C47:D47"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B16"/>
     <mergeCell ref="A17:A36"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
   </mergeCells>
   <pageMargins left="0.70866141732283461" right="0.70866141732283461" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="40" orientation="portrait" r:id="rId1"/>

--- a/LIBERACION_ACTA.xlsx
+++ b/LIBERACION_ACTA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\heidi\maestradb-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deivi\Desktop\maestradb-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DE9A08A-E421-406E-B537-BC97327A2ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D72F858-5952-4100-A95D-9E7F954B49A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,10 +322,10 @@
 ACTA DE LIBERACIÓN DE MEDICAMENTOS Y DISPOSITIVOS MÉDICOS - MAPFRE</t>
   </si>
   <si>
-    <t xml:space="preserve">APROBADO                           (X)             </t>
-  </si>
-  <si>
-    <t xml:space="preserve">RECHAZADO                         (  )     </t>
+    <t xml:space="preserve">APROBADO     (X)             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RECHAZADO   (  )     </t>
   </si>
 </sst>
 </file>
@@ -807,6 +807,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -836,75 +905,6 @@
     </xf>
     <xf numFmtId="1" fontId="12" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1298,8 +1298,8 @@
   </sheetPr>
   <dimension ref="A1:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2"/>
@@ -1313,14 +1313,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30.75" customHeight="1" thickBot="1">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="50"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:17" ht="24.75" customHeight="1">
       <c r="A2" s="20" t="s">
@@ -1340,9 +1340,9 @@
       <c r="C3" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="34"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:17" ht="27" customHeight="1">
       <c r="A4" s="18" t="s">
@@ -1352,9 +1352,9 @@
       <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="35"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="37"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="60"/>
     </row>
     <row r="5" spans="1:17" ht="17.25" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -1364,9 +1364,9 @@
       <c r="C5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="40"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="63"/>
     </row>
     <row r="6" spans="1:17" ht="18.75" customHeight="1">
       <c r="A6" s="18" t="s">
@@ -1376,9 +1376,9 @@
       <c r="C6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
     </row>
     <row r="7" spans="1:17" ht="17.25" customHeight="1">
       <c r="A7" s="18" t="s">
@@ -1388,9 +1388,9 @@
       <c r="C7" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
     </row>
     <row r="8" spans="1:17" ht="17.25" customHeight="1">
       <c r="A8" s="18" t="s">
@@ -1400,9 +1400,9 @@
       <c r="C8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
     </row>
     <row r="9" spans="1:17" ht="17.25" customHeight="1">
       <c r="A9" s="18" t="s">
@@ -1412,9 +1412,9 @@
       <c r="C9" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
     </row>
     <row r="10" spans="1:17" ht="15" customHeight="1">
       <c r="A10" s="18" t="s">
@@ -1424,15 +1424,15 @@
       <c r="C10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
     </row>
     <row r="12" spans="1:17" ht="13.8">
-      <c r="A12" s="52" t="s">
+      <c r="A12" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="4" t="s">
         <v>1</v>
       </c>
@@ -1447,10 +1447,10 @@
       </c>
     </row>
     <row r="13" spans="1:17" ht="13.8">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="39"/>
       <c r="C13" s="9" t="s">
         <v>30</v>
       </c>
@@ -1461,8 +1461,8 @@
       <c r="F13" s="5"/>
     </row>
     <row r="14" spans="1:17" ht="41.4">
-      <c r="A14" s="56"/>
-      <c r="B14" s="57"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="41"/>
       <c r="C14" s="9" t="s">
         <v>34</v>
       </c>
@@ -1474,8 +1474,8 @@
       <c r="Q14" s="15"/>
     </row>
     <row r="15" spans="1:17" ht="41.4">
-      <c r="A15" s="56"/>
-      <c r="B15" s="57"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="41"/>
       <c r="C15" s="9" t="s">
         <v>31</v>
       </c>
@@ -1486,8 +1486,8 @@
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:17" ht="27.6">
-      <c r="A16" s="58"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="9" t="s">
         <v>35</v>
       </c>
@@ -1498,10 +1498,10 @@
       <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:11" ht="13.8">
-      <c r="A17" s="60" t="s">
+      <c r="A17" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="9" t="s">
@@ -1514,8 +1514,8 @@
       <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:11" ht="13.8">
-      <c r="A18" s="61"/>
-      <c r="B18" s="46"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="9" t="s">
         <v>37</v>
       </c>
@@ -1526,8 +1526,8 @@
       <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:11" ht="13.8">
-      <c r="A19" s="61"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="45"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="9" t="s">
         <v>38</v>
       </c>
@@ -1538,8 +1538,8 @@
       <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:11" ht="28.5" customHeight="1">
-      <c r="A20" s="61"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="45"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="9" t="s">
         <v>33</v>
       </c>
@@ -1551,8 +1551,8 @@
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="13.8">
-      <c r="A21" s="61"/>
-      <c r="B21" s="45" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="47" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="9" t="s">
@@ -1565,8 +1565,8 @@
       <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:11" ht="13.8">
-      <c r="A22" s="61"/>
-      <c r="B22" s="46"/>
+      <c r="A22" s="45"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="9" t="s">
         <v>40</v>
       </c>
@@ -1577,8 +1577,8 @@
       <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:11" ht="13.8">
-      <c r="A23" s="61"/>
-      <c r="B23" s="46"/>
+      <c r="A23" s="45"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="9" t="s">
         <v>41</v>
       </c>
@@ -1589,8 +1589,8 @@
       <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:11" ht="13.8">
-      <c r="A24" s="61"/>
-      <c r="B24" s="46"/>
+      <c r="A24" s="45"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="9" t="s">
         <v>42</v>
       </c>
@@ -1601,8 +1601,8 @@
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:11" ht="13.8">
-      <c r="A25" s="61"/>
-      <c r="B25" s="46"/>
+      <c r="A25" s="45"/>
+      <c r="B25" s="48"/>
       <c r="C25" s="9" t="s">
         <v>43</v>
       </c>
@@ -1613,8 +1613,8 @@
       <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:11" ht="13.8">
-      <c r="A26" s="61"/>
-      <c r="B26" s="46"/>
+      <c r="A26" s="45"/>
+      <c r="B26" s="48"/>
       <c r="C26" s="9" t="s">
         <v>44</v>
       </c>
@@ -1625,8 +1625,8 @@
       <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:11" ht="13.8">
-      <c r="A27" s="61"/>
-      <c r="B27" s="46"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="48"/>
       <c r="C27" s="9" t="s">
         <v>45</v>
       </c>
@@ -1637,8 +1637,8 @@
       <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:11" ht="13.8">
-      <c r="A28" s="61"/>
-      <c r="B28" s="46"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="48"/>
       <c r="C28" s="9" t="s">
         <v>46</v>
       </c>
@@ -1649,8 +1649,8 @@
       <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:11" ht="13.8">
-      <c r="A29" s="61"/>
-      <c r="B29" s="47"/>
+      <c r="A29" s="45"/>
+      <c r="B29" s="49"/>
       <c r="C29" s="9" t="s">
         <v>47</v>
       </c>
@@ -1661,8 +1661,8 @@
       <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:11" ht="13.8">
-      <c r="A30" s="61"/>
-      <c r="B30" s="45" t="s">
+      <c r="A30" s="45"/>
+      <c r="B30" s="47" t="s">
         <v>9</v>
       </c>
       <c r="C30" s="9" t="s">
@@ -1675,8 +1675,8 @@
       <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:11" ht="13.8">
-      <c r="A31" s="61"/>
-      <c r="B31" s="46"/>
+      <c r="A31" s="45"/>
+      <c r="B31" s="48"/>
       <c r="C31" s="9" t="s">
         <v>49</v>
       </c>
@@ -1687,8 +1687,8 @@
       <c r="F31" s="6"/>
     </row>
     <row r="32" spans="1:11" ht="27.6">
-      <c r="A32" s="61"/>
-      <c r="B32" s="46"/>
+      <c r="A32" s="45"/>
+      <c r="B32" s="48"/>
       <c r="C32" s="9" t="s">
         <v>32</v>
       </c>
@@ -1699,8 +1699,8 @@
       <c r="F32" s="6"/>
     </row>
     <row r="33" spans="1:6" ht="13.8">
-      <c r="A33" s="61"/>
-      <c r="B33" s="46"/>
+      <c r="A33" s="45"/>
+      <c r="B33" s="48"/>
       <c r="C33" s="9" t="s">
         <v>50</v>
       </c>
@@ -1711,8 +1711,8 @@
       <c r="F33" s="6"/>
     </row>
     <row r="34" spans="1:6" ht="13.8">
-      <c r="A34" s="61"/>
-      <c r="B34" s="47"/>
+      <c r="A34" s="45"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="9" t="s">
         <v>51</v>
       </c>
@@ -1723,7 +1723,7 @@
       <c r="F34" s="6"/>
     </row>
     <row r="35" spans="1:6" ht="41.4">
-      <c r="A35" s="61"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="11" t="s">
         <v>10</v>
       </c>
@@ -1737,7 +1737,7 @@
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" ht="28.8">
-      <c r="A36" s="62"/>
+      <c r="A36" s="46"/>
       <c r="B36" s="5" t="s">
         <v>11</v>
       </c>
@@ -1751,14 +1751,14 @@
       <c r="F36" s="5"/>
     </row>
     <row r="38" spans="1:6" ht="14.4">
-      <c r="A38" s="51" t="s">
+      <c r="A38" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="51"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="35"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="35"/>
     </row>
     <row r="39" spans="1:6" ht="14.4">
       <c r="A39" s="12"/>
@@ -1775,7 +1775,7 @@
       <c r="B40" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C40" s="63"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -1785,29 +1785,29 @@
       <c r="B41" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
     </row>
     <row r="42" spans="1:6">
       <c r="B42" s="2"/>
-      <c r="C42" s="63"/>
+      <c r="C42" s="50"/>
     </row>
     <row r="43" spans="1:6">
-      <c r="C43" s="63"/>
+      <c r="C43" s="50"/>
     </row>
     <row r="44" spans="1:6">
-      <c r="C44" s="63"/>
+      <c r="C44" s="50"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="C45" s="63"/>
+      <c r="C45" s="50"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="C46" s="63"/>
+      <c r="C46" s="50"/>
     </row>
     <row r="47" spans="1:6" ht="11.4" customHeight="1">
-      <c r="C47" s="64"/>
+      <c r="C47" s="51"/>
       <c r="D47" s="30"/>
     </row>
     <row r="48" spans="1:6">
@@ -1822,18 +1822,18 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C40:C47"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B21:B29"/>
+    <mergeCell ref="B30:B34"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A38:F38"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B16"/>
     <mergeCell ref="A17:A36"/>
     <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C40:C47"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B21:B29"/>
-    <mergeCell ref="B30:B34"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="D5:F5"/>
